--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2886870.452870775</v>
+        <v>2991050.087321847</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>78.96122915360921</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +712,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>221.7223713192635</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>28.33530928504397</v>
+        <v>29.29900410170902</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,13 +870,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>90.50519121882219</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>74.22494303711946</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>78.92424093294932</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>279.0440125622324</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>183.1642512458427</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1186,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>92.47445699814351</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1297,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>85.39208168443119</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1345,19 +1347,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>258.2317318494241</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1427,10 +1429,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1528,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>22.65115569188744</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>192.9183958257884</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1610,19 +1612,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206814</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417107</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>59.96838802184509</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1819,10 +1821,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>104.7777418077832</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1856,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187875</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2011,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>126.6321535627874</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,16 +2061,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>10.74993283584321</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2144,10 +2146,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>133.3722917337074</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>67.00771475394413</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2296,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>53.30076123484837</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>80.31960454124595</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2615,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2713,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>161.7400393421045</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>97.24762927924141</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2801,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2953,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>18.50276072357057</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>168.3381167077338</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3007,10 +3009,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>24.83266606353065</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3250,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>29.6738200803744</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3281,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3323,13 +3325,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3439,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>40.96105405076475</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3481,16 +3483,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>126.9927435506645</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>117.4765410832869</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012177</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.1376433238281</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569554</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>83.44729448253244</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856563</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012177</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892443</v>
+        <v>220.6346102953135</v>
       </c>
       <c r="V43" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>104.8913819999787</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>25.52471385612634</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1311.909787855436</v>
+        <v>1917.382287315189</v>
       </c>
       <c r="C2" t="n">
-        <v>1311.909787855436</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4343,37 +4345,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450752</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919558</v>
+        <v>2307.521619291001</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.509627919558</v>
+        <v>1917.382287315189</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>561.0764108006838</v>
+        <v>486.5398815319805</v>
       </c>
       <c r="C4" t="n">
-        <v>392.1402278727769</v>
+        <v>486.5398815319805</v>
       </c>
       <c r="D4" t="n">
-        <v>242.0235884604412</v>
+        <v>486.5398815319805</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300937</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218339</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218339</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
         <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1735.608663915319</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U4" t="n">
-        <v>1735.608663915319</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V4" t="n">
-        <v>1480.924175709432</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W4" t="n">
-        <v>1191.507005672471</v>
+        <v>935.322011573528</v>
       </c>
       <c r="X4" t="n">
-        <v>963.5174547744537</v>
+        <v>707.3324606755107</v>
       </c>
       <c r="Y4" t="n">
-        <v>742.7248756309235</v>
+        <v>486.5398815319805</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>921.7704558796252</v>
+        <v>1681.836054204826</v>
       </c>
       <c r="C5" t="n">
-        <v>921.7704558796252</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
-        <v>563.5047572728747</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>563.5047572728747</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>556.5592565236713</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>141.4868063686677</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
@@ -4571,7 +4573,7 @@
         <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
@@ -4586,7 +4588,7 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
         <v>3325.60582160917</v>
@@ -4598,19 +4600,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W5" t="n">
         <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943747</v>
+        <v>1681.836054204826</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228005</v>
@@ -4656,28 +4658,28 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>608.0847133907091</v>
+        <v>923.9108438165264</v>
       </c>
       <c r="C7" t="n">
-        <v>608.0847133907091</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="D7" t="n">
-        <v>457.9680739783734</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959803</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F7" t="n">
         <v>310.0549803959803</v>
@@ -4720,7 +4722,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
         <v>111.6347488791189</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.46409084602</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415546</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1333.834836463796</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V7" t="n">
-        <v>1079.150348257909</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="W7" t="n">
-        <v>789.7331782209488</v>
+        <v>1224.424878447884</v>
       </c>
       <c r="X7" t="n">
-        <v>789.7331782209488</v>
+        <v>1224.424878447884</v>
       </c>
       <c r="Y7" t="n">
-        <v>789.7331782209488</v>
+        <v>1003.632299304354</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>2232.598233480553</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1863.635716540141</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1505.370017933391</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1119.581765335147</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>708.5958605455392</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>293.5234103905356</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V8" t="n">
-        <v>3121.906610713899</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W8" t="n">
-        <v>3121.906610713899</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="X8" t="n">
-        <v>3121.906610713899</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>2619.198073544675</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>216.6287558445192</v>
+        <v>470.5862204338721</v>
       </c>
       <c r="C10" t="n">
-        <v>216.6287558445192</v>
+        <v>470.5862204338721</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>320.4695810215363</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,10 +4983,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
         <v>1645.778206672847</v>
@@ -4993,19 +4995,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1163.171458061136</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>908.4869698552495</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W10" t="n">
-        <v>619.069799818289</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="X10" t="n">
-        <v>619.069799818289</v>
+        <v>652.2346852641118</v>
       </c>
       <c r="Y10" t="n">
-        <v>398.2772206747588</v>
+        <v>652.2346852641118</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5038,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5075,7 +5077,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5118,25 +5120,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.913939313768</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C13" t="n">
-        <v>558.0193492433381</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D13" t="n">
-        <v>407.9027098310023</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1493.518787364011</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>983.30903818352</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192599</v>
@@ -5282,13 +5284,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,31 +5299,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2092.798483612594</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C16" t="n">
-        <v>634.9279362553159</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5467,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168621</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>448.1846595309957</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>943.5102657467545</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>1540.888753373306</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373306</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612593</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.7772127656159</v>
+        <v>835.5837926935558</v>
       </c>
       <c r="C19" t="n">
-        <v>782.841029837709</v>
+        <v>666.6476097656489</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253733</v>
+        <v>516.5309703533131</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>368.61787677092</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>221.7279292730097</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611859</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.425677595856</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5792,7 +5794,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683104</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3194.624135499465</v>
+        <v>2939.372134388645</v>
       </c>
       <c r="C22" t="n">
-        <v>3025.687952571559</v>
+        <v>2770.435951460738</v>
       </c>
       <c r="D22" t="n">
-        <v>2875.571313159223</v>
+        <v>2620.319312048402</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>2472.406218466009</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>2472.406218466009</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I22" t="n">
         <v>2337.686731866304</v>
@@ -5932,28 +5934,28 @@
         <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S22" t="n">
-        <v>4623.148592041074</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T22" t="n">
-        <v>4403.547127064016</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U22" t="n">
-        <v>4114.471900408214</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V22" t="n">
-        <v>4114.471900408214</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W22" t="n">
-        <v>3825.054730371253</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X22" t="n">
-        <v>3597.065179473235</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y22" t="n">
-        <v>3376.272600329705</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
     <row r="23">
@@ -5975,34 +5977,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>2716.927329289434</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>2716.927329289434</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>3314.305816915985</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>3941.903780470592</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>4230.570347950413</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>948.5505208511905</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C25" t="n">
-        <v>779.6143379232836</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>229.7425191625314</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>229.7425191625314</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>229.7425191625314</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X25" t="n">
-        <v>1130.19898568143</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y25" t="n">
-        <v>1130.19898568143</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="26">
@@ -6218,37 +6220,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6260,7 +6262,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852889</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>2231.588527385792</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>2231.588527385792</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>2726.914133601551</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M27" t="n">
-        <v>3324.292621228103</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N27" t="n">
-        <v>3951.89058478271</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O27" t="n">
-        <v>4503.800315021997</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P27" t="n">
-        <v>4690.833152398594</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6358,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>788.0191461778176</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C28" t="n">
         <v>788.0191461778176</v>
@@ -6379,55 +6381,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2216.543602719426</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1996.942137742368</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U28" t="n">
-        <v>1707.866911086565</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V28" t="n">
-        <v>1707.866911086565</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W28" t="n">
-        <v>1418.449741049605</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X28" t="n">
-        <v>1190.460190151587</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y28" t="n">
-        <v>969.6676110080573</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="29">
@@ -6443,37 +6445,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C30" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D30" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>2876.560776129205</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>3473.939263755757</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373306</v>
+        <v>4101.537227310363</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612593</v>
+        <v>4101.537227310363</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R30" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S30" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T30" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U30" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V30" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W30" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X30" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y30" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3025.224490384403</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C31" t="n">
-        <v>2856.288307456496</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D31" t="n">
-        <v>2856.288307456496</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E31" t="n">
-        <v>2708.375213874103</v>
+        <v>336.3048548543961</v>
       </c>
       <c r="F31" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4453.748946926012</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4234.147481948953</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3945.072255293151</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3945.072255293151</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3655.65508525619</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X31" t="n">
-        <v>3427.665534358173</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y31" t="n">
-        <v>3206.872955214643</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819236</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111692</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075785</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2233.355914590557</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2383.002557118212</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2383.002557118212</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>2878.328163333971</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>3475.706650960523</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>3905.661761784423</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>4457.57149202371</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4457.57149202371</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3175.341129796738</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>3006.404946868831</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D34" t="n">
-        <v>2856.288307456495</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="E34" t="n">
-        <v>2708.375213874102</v>
+        <v>432.9862109052757</v>
       </c>
       <c r="F34" t="n">
-        <v>2561.485266376192</v>
+        <v>286.0962634073653</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376192</v>
+        <v>118.9001641222453</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.932614305899</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>4440.932614305899</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>4151.857387650097</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>3897.17289944421</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>3607.755729407249</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>3577.782173770508</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>3356.989594626978</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C36" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D36" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273906</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K36" t="n">
-        <v>119.2902967703784</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="L36" t="n">
-        <v>119.2902967703784</v>
+        <v>2453.684166529967</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>3051.062654156519</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>3678.660617711126</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>4230.570347950413</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S36" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T36" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U36" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V36" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W36" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y36" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1057.95525898292</v>
+        <v>3031.88921499615</v>
       </c>
       <c r="C37" t="n">
-        <v>889.0190760550126</v>
+        <v>3031.88921499615</v>
       </c>
       <c r="D37" t="n">
-        <v>738.9024366426769</v>
+        <v>2881.772575583814</v>
       </c>
       <c r="E37" t="n">
-        <v>590.9893430602838</v>
+        <v>2733.859482001421</v>
       </c>
       <c r="F37" t="n">
-        <v>444.0993955623734</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="G37" t="n">
-        <v>276.9032962772533</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H37" t="n">
-        <v>135.1914651194514</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854707</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W37" t="n">
-        <v>1688.385853854707</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X37" t="n">
-        <v>1460.396302956689</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y37" t="n">
-        <v>1239.603723813159</v>
+        <v>3031.88921499615</v>
       </c>
     </row>
     <row r="38">
@@ -7163,58 +7165,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L39" t="n">
-        <v>590.9096564684978</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>576.8388927589095</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C40" t="n">
-        <v>407.9027098310025</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D40" t="n">
-        <v>407.9027098310025</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310025</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>261.012762333092</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7366,16 +7368,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138407</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703105</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,25 +7399,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7427,31 +7429,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590559</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2383.002557118214</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>2716.927329289435</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>3212.252935505193</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M42" t="n">
-        <v>3212.252935505193</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N42" t="n">
-        <v>3839.8508990598</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O42" t="n">
-        <v>4230.570347950414</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P42" t="n">
-        <v>4654.193497445482</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445482</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2940.5785039035</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C43" t="n">
-        <v>2856.288307456498</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D43" t="n">
-        <v>2856.288307456498</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>2708.375213874105</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>2561.485266376194</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.92275029663</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4623.787448650996</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4404.185983673938</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>4115.110757018136</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V43" t="n">
-        <v>3860.426268812249</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W43" t="n">
-        <v>3571.009098775288</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X43" t="n">
-        <v>3343.01954787727</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y43" t="n">
-        <v>3122.22696873374</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>634.5603720565524</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683104</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400717</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>407.9027098310023</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>144.5956654067404</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>59.21924749803958</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>107.2784330767827</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23707,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>181.406732581461</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23899,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>38.89198472948144</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>207.8347205162516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>32.15184655856149</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>114.0185712477005</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>86.99395161137551</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>145.3900508477912</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24646,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>19.2862466595401</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>154.8900140445866</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>126.9182872993607</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>12.68816929391076</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>115.4620467826932</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>196.0358353086627</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>40.30478226780077</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25369,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>91.59190980143028</v>
       </c>
     </row>
     <row r="38">
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>62.35543909865048</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856563</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>83.79952661609551</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016447</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>65.54986409393067</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26023,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>43.72409101823369</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>191.8807364711619</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>738020.8750562394</v>
+        <v>738020.8750562395</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>738020.8750562395</v>
+        <v>738020.8750562394</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26319,43 @@
         <v>697885.5043846407</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846406</v>
       </c>
       <c r="E2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="G2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="H2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.609736506</v>
       </c>
       <c r="I2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="J2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="J2" t="n">
-        <v>686074.6097365054</v>
-      </c>
       <c r="K2" t="n">
+        <v>686074.6097365053</v>
+      </c>
+      <c r="L2" t="n">
+        <v>686074.6097365053</v>
+      </c>
+      <c r="M2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="N2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="O2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="L2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>686074.6097365058</v>
-      </c>
-      <c r="N2" t="n">
-        <v>686074.6097365059</v>
-      </c>
-      <c r="O2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="P2" t="n">
-        <v>686074.609736506</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316949</v>
+        <v>91573.95495316945</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316945</v>
+        <v>91573.95495316948</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316948</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181816</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181806</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181812</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.92018181808</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
-        <v>12386.92018181812</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="N4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="O4" t="n">
-        <v>12386.92018181803</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="P4" t="n">
         <v>12386.92018181813</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-830367.1368575142</v>
+        <v>-830367.1368575146</v>
       </c>
       <c r="C6" t="n">
-        <v>498377.608870078</v>
+        <v>498377.6088700782</v>
       </c>
       <c r="D6" t="n">
-        <v>498377.6088700782</v>
+        <v>498377.6088700779</v>
       </c>
       <c r="E6" t="n">
-        <v>247152.6979234251</v>
+        <v>247152.6979234249</v>
       </c>
       <c r="F6" t="n">
-        <v>572565.1597307803</v>
+        <v>572565.1597307806</v>
       </c>
       <c r="G6" t="n">
         <v>572565.1597307805</v>
       </c>
       <c r="H6" t="n">
-        <v>572565.1597307808</v>
+        <v>572565.1597307809</v>
       </c>
       <c r="I6" t="n">
-        <v>572565.1597307804</v>
+        <v>572565.1597307806</v>
       </c>
       <c r="J6" t="n">
         <v>355033.9573335028</v>
       </c>
       <c r="K6" t="n">
+        <v>572565.1597307802</v>
+      </c>
+      <c r="L6" t="n">
+        <v>572565.1597307802</v>
+      </c>
+      <c r="M6" t="n">
+        <v>487510.1317952684</v>
+      </c>
+      <c r="N6" t="n">
+        <v>572565.1597307804</v>
+      </c>
+      <c r="O6" t="n">
         <v>572565.1597307805</v>
       </c>
-      <c r="L6" t="n">
-        <v>572565.1597307805</v>
-      </c>
-      <c r="M6" t="n">
-        <v>487510.1317952687</v>
-      </c>
-      <c r="N6" t="n">
-        <v>572565.1597307808</v>
-      </c>
-      <c r="O6" t="n">
-        <v>572565.1597307804</v>
-      </c>
       <c r="P6" t="n">
-        <v>572565.1597307809</v>
+        <v>572565.1597307806</v>
       </c>
     </row>
   </sheetData>
@@ -26695,19 +26697,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022924</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,13 +26822,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>275.7218124670737</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>148.0087293592055</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>118.0986533615252</v>
+        <v>117.1349585448602</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,10 +27554,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>274.7677005521854</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>220.382821350201</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27679,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>100.907739248988</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27819,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>7.167825643380525</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>111.4435131414778</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>235.2778014719914</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28017,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>61.04188096213798</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,19 +28067,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>27.98010635618874</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28336,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>7.394985773160066e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,16 +31840,16 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>560.1612034965808</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31856,10 +31858,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
@@ -32075,7 +32077,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32084,19 +32086,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>687.9583686879464</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>342.8454457931489</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>436.4492970000073</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>301.1823051500296</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,22 +32791,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>434.1786358382025</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32815,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704897</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>489.289183278307</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>493.6049778318539</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067208</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>565.6398038246462</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>161.7871425275301</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>211.7351844430268</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>232.153703594058</v>
+        <v>353.6230700590495</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>537.2623544349631</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>399.4395445221152</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>194.5189324111248</v>
+        <v>300.5543663814922</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>418.0271695745625</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35504,10 +35506,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>37.00975247789211</v>
@@ -35723,7 +35725,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35732,19 +35734,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>545.824334765928</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>37.00975247789211</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>205.0040068187899</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>302.474889585677</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>159.0482712280113</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>291.5823913937581</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561594</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>357.9474711949737</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>359.6305704175236</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236314895</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>434.2980917413129</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>23.94570355317105</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>73.1808046631526</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>90.01966967203964</v>
+        <v>211.4890361370311</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37710,16 +37712,16 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
         <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>394.6661099905186</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37947,16 +37949,16 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
         <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>55.96455263125056</v>
+        <v>161.999986601618</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2991050.087321847</v>
+        <v>2987037.477307855</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>370.064896548356</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>221.7223713192635</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>29.29900410170902</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>218.1043346164859</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>57.29212650174304</v>
       </c>
       <c r="C5" t="n">
-        <v>90.50519121882219</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>78.92424093294932</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>13.02719212039676</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>99.59933623926882</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>183.1642512458427</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1293,19 +1293,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>85.39208168443119</v>
+        <v>77.31354443380503</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1353,13 +1353,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569541</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>192.9183958257884</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>140.9144183062133</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417107</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1770,10 +1770,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,10 +1821,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>104.7777418077832</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>126.6321535627874</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2146,10 +2146,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>133.3722917337074</v>
+        <v>125.8152577453148</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>53.30076123484837</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>97.24762927924141</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>18.50276072357057</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>24.83266606353065</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>126.9927435506645</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>113.6427030833203</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3906,13 +3906,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>220.6346102953135</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>41.74133133758716</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>25.52471385612634</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1917.382287315189</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="C2" t="n">
-        <v>1548.419770374778</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,40 +4342,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2884.252265792695</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2531.48361052258</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2307.521619291001</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>1917.382287315189</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="3">
@@ -4385,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
         <v>1685.951113992584</v>
@@ -4427,34 +4427,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>486.5398815319805</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="C4" t="n">
-        <v>486.5398815319805</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D4" t="n">
-        <v>486.5398815319805</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="E4" t="n">
-        <v>456.9449278938906</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U4" t="n">
-        <v>1224.739181610489</v>
+        <v>1706.987139384971</v>
       </c>
       <c r="V4" t="n">
-        <v>1224.739181610489</v>
+        <v>1452.302651179084</v>
       </c>
       <c r="W4" t="n">
-        <v>935.322011573528</v>
+        <v>1162.885481142124</v>
       </c>
       <c r="X4" t="n">
-        <v>707.3324606755107</v>
+        <v>934.8959302441062</v>
       </c>
       <c r="Y4" t="n">
-        <v>486.5398815319805</v>
+        <v>714.1033511005761</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1681.836054204826</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450752</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180638</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="Y5" t="n">
-        <v>1681.836054204826</v>
+        <v>2403.038273524211</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>923.9108438165264</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>754.9746608886195</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>604.8580214762837</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="U7" t="n">
-        <v>1513.842048484845</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="V7" t="n">
-        <v>1513.842048484845</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="W7" t="n">
-        <v>1224.424878447884</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X7" t="n">
-        <v>1224.424878447884</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y7" t="n">
-        <v>1003.632299304354</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2232.598233480553</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C8" t="n">
-        <v>1863.635716540141</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="D8" t="n">
-        <v>1505.370017933391</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="E8" t="n">
-        <v>1119.581765335147</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="F8" t="n">
-        <v>708.5958605455392</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>293.5234103905356</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520487</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>3009.337405520487</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>3009.337405520487</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2619.198073544675</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4901,34 +4901,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>470.5862204338721</v>
+        <v>463.6594280995018</v>
       </c>
       <c r="C10" t="n">
-        <v>470.5862204338721</v>
+        <v>294.723245171595</v>
       </c>
       <c r="D10" t="n">
-        <v>320.4695810215363</v>
+        <v>144.6066057592592</v>
       </c>
       <c r="E10" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1638.191681214137</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621292</v>
+        <v>1383.50719300825</v>
       </c>
       <c r="W10" t="n">
-        <v>880.2242361621292</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>652.2346852641118</v>
+        <v>866.1004720732717</v>
       </c>
       <c r="Y10" t="n">
-        <v>652.2346852641118</v>
+        <v>645.3078929297416</v>
       </c>
     </row>
     <row r="11">
@@ -5035,28 +5035,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>801.6605733532803</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C13" t="n">
-        <v>632.7243904253734</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1493.518787364011</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1204.10161732705</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X13" t="n">
-        <v>1204.10161732705</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y13" t="n">
-        <v>983.30903818352</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="14">
@@ -5260,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5272,25 +5272,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,13 +5299,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
@@ -5369,16 +5369,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.777212765616</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.624977674364</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1871.624977674364</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1582.207807637403</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1354.218256739386</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>835.5837926935558</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>666.6476097656489</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>516.5309703533131</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>368.61787677092</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>221.7279292730097</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1755.431557602304</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1466.014387565343</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>1238.024836667326</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>1017.232257523796</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5794,7 +5794,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5834,25 +5834,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2939.372134388645</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C22" t="n">
-        <v>2770.435951460738</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D22" t="n">
-        <v>2620.319312048402</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E22" t="n">
-        <v>2472.406218466009</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F22" t="n">
-        <v>2472.406218466009</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G22" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430192</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X22" t="n">
-        <v>3160.164713532175</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y22" t="n">
-        <v>2939.372134388645</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="23">
@@ -5986,25 +5986,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6083,13 +6083,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>696.7084350851671</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>527.7722521572603</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>377.6556127449245</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>229.7425191625314</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>229.7425191625314</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>229.7425191625314</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.149479058937</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>878.3568999154069</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6220,13 +6220,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6235,7 +6235,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6253,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6454,28 +6454,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>2876.560776129205</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>3473.939263755757</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>4101.537227310363</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>4101.537227310363</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>634.334587849125</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>484.2179484367892</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>336.3048548543961</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6660,13 +6660,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>580.8993044876688</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>580.8993044876688</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>432.9862109052757</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>286.0962634073653</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>118.9001641222453</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6928,19 +6928,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>2453.684166529967</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>3051.062654156519</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>3678.660617711126</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>4230.570347950413</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3031.88921499615</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>3031.88921499615</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>2881.772575583814</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>2733.859482001421</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>2586.969534503511</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>2419.773435218391</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673039</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467152</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>3388.154264430192</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>3160.164713532175</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>3031.88921499615</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7162,31 +7162,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111703</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7256,19 +7256,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>768.5380889459582</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>599.6019060180513</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1398.968683817745</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1170.979132919728</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>950.1865537761979</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7408,16 +7408,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.0655846733346</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>411.1294017454277</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>261.0127623330919</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1754.597837787969</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1499.913349582082</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1210.496179545122</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>982.5066286471044</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>761.7140495035743</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7733,22 +7733,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
         <v>538.7363435406111</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2171.280006238955</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583153</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-3.073233536594895e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>59.21924749803958</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>145.6085800303777</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>181.406732581461</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>38.89198472948144</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>32.15184655856149</v>
+        <v>39.70888054695402</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>86.99395161137551</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>154.8900140445866</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>126.9182872993607</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>115.4620467826932</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>91.59190980143028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>34.97276993489203</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>65.54986409393067</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>191.8807364711619</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>738020.8750562394</v>
+        <v>738020.8750562395</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>738020.8750562395</v>
+        <v>738020.8750562394</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>738020.8750562395</v>
+        <v>738020.8750562394</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>738020.8750562395</v>
+        <v>738020.8750562394</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>738020.8750562395</v>
+        <v>738020.8750562394</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>738020.8750562395</v>
+        <v>738020.8750562394</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>738020.8750562395</v>
+        <v>738020.8750562394</v>
       </c>
     </row>
     <row r="15">
@@ -26316,46 +26316,46 @@
         <v>697885.5043846407</v>
       </c>
       <c r="C2" t="n">
+        <v>697885.5043846411</v>
+      </c>
+      <c r="D2" t="n">
         <v>697885.5043846407</v>
       </c>
-      <c r="D2" t="n">
-        <v>697885.5043846406</v>
-      </c>
       <c r="E2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="F2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="G2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="F2" t="n">
-        <v>686074.6097365059</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="H2" t="n">
-        <v>686074.609736506</v>
-      </c>
       <c r="I2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="J2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="K2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="L2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="M2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="N2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="O2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365057</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5.977382704713819e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.048154783551581e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316945</v>
+        <v>91573.95495316951</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316948</v>
+        <v>91573.95495316936</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316948</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="E4" t="n">
+        <v>12386.92018181818</v>
+      </c>
+      <c r="F4" t="n">
         <v>12386.92018181813</v>
-      </c>
-      <c r="F4" t="n">
-        <v>12386.92018181816</v>
       </c>
       <c r="G4" t="n">
         <v>12386.92018181813</v>
@@ -26441,7 +26441,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181817</v>
       </c>
       <c r="K4" t="n">
         <v>12386.92018181813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-830367.1368575146</v>
+        <v>-830367.1368575143</v>
       </c>
       <c r="C6" t="n">
-        <v>498377.6088700782</v>
+        <v>498377.6088700779</v>
       </c>
       <c r="D6" t="n">
-        <v>498377.6088700779</v>
+        <v>498377.6088700781</v>
       </c>
       <c r="E6" t="n">
-        <v>247152.6979234249</v>
+        <v>246805.3186690686</v>
       </c>
       <c r="F6" t="n">
-        <v>572565.1597307806</v>
+        <v>572217.7804764238</v>
       </c>
       <c r="G6" t="n">
-        <v>572565.1597307805</v>
+        <v>572217.7804764234</v>
       </c>
       <c r="H6" t="n">
-        <v>572565.1597307809</v>
+        <v>572217.7804764236</v>
       </c>
       <c r="I6" t="n">
-        <v>572565.1597307806</v>
+        <v>572217.7804764236</v>
       </c>
       <c r="J6" t="n">
-        <v>355033.9573335028</v>
+        <v>354686.578079146</v>
       </c>
       <c r="K6" t="n">
-        <v>572565.1597307802</v>
+        <v>572217.7804764232</v>
       </c>
       <c r="L6" t="n">
-        <v>572565.1597307802</v>
+        <v>572217.7804764236</v>
       </c>
       <c r="M6" t="n">
-        <v>487510.1317952684</v>
+        <v>487162.7525409116</v>
       </c>
       <c r="N6" t="n">
-        <v>572565.1597307804</v>
+        <v>572217.7804764236</v>
       </c>
       <c r="O6" t="n">
-        <v>572565.1597307805</v>
+        <v>572217.7804764236</v>
       </c>
       <c r="P6" t="n">
-        <v>572565.1597307806</v>
+        <v>572217.7804764236</v>
       </c>
     </row>
   </sheetData>
@@ -26697,19 +26697,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26740,10 +26740,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022921</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>12.66894511512453</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>148.0087293592055</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>117.1349585448602</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>68.10750358912699</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>325.4417151617375</v>
       </c>
       <c r="C5" t="n">
-        <v>274.7677005521854</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100.907739248988</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>206.5217571557724</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27839,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>307.2767095024426</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>111.4435131414778</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27909,16 +27909,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>61.04188096213798</v>
+        <v>69.12041821276414</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28073,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.179500941361766e-12</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>7.394985773160066e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32089,19 +32089,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>332.1692388321076</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32311,16 +32311,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,13 +32329,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>436.4492970000073</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32554,28 +32554,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,7 +32812,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,13 +33040,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,13 +33277,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>493.6049778318539</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33423,7 +33423,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>211.7351844430268</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33976,22 +33976,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>353.6230700590495</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,16 +34207,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>399.4395445221152</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34386,7 +34386,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34453,7 +34453,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>300.5543663814922</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35737,19 +35737,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>189.5729943876631</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,13 +35977,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>302.474889585677</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>219.1556674334648</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,13 +36688,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,13 +36925,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>359.6305704175236</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>73.1808046631526</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37624,22 +37624,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>211.4890361370311</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>265.4651371077849</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38034,7 +38034,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38101,7 +38101,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>161.999986601618</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2987037.477307855</v>
+        <v>2988798.00761064</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>370.064896548356</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>212.2140719095444</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -825,13 +825,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>218.1043346164859</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>192.1675620474806</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>57.29212650174304</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>228.0656025585482</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1071,7 +1071,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>13.02719212039676</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1138,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>99.59933623926882</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>32.6480132641926</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>77.31354443380503</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>71.67037196991669</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569541</v>
+        <v>83.70251495695591</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1536,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>0.8253826161911274</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>140.9144183062133</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>51.36569740310382</v>
       </c>
       <c r="U16" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="21">
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>125.8152577453148</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571659</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>210.5950626772375</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>51.36569740310382</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018862</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790577</v>
       </c>
       <c r="U43" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>41.74133133758716</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>934.5673701373257</v>
+        <v>1303.529887077737</v>
       </c>
       <c r="C2" t="n">
         <v>934.5673701373257</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520486</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450752</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919558</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943746</v>
+        <v>1690.129727141859</v>
       </c>
     </row>
     <row r="3">
@@ -4385,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
         <v>1685.951113992584</v>
@@ -4427,10 +4427,10 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>532.4548862703364</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>363.5187033424295</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>213.4020639300937</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300937</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1706.987139384971</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1452.302651179084</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W4" t="n">
-        <v>1162.885481142124</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X4" t="n">
-        <v>934.8959302441062</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y4" t="n">
-        <v>714.1033511005761</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794325</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.038273524211</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2403.038273524211</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y5" t="n">
-        <v>2403.038273524211</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601528</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4755,22 +4755,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1914.135768168901</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1914.135768168901</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1914.135768168901</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>1624.71859813194</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1396.729047233923</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>1175.936468090393</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796265</v>
+        <v>921.7704558796243</v>
       </c>
       <c r="C8" t="n">
-        <v>921.7704558796265</v>
+        <v>921.7704558796243</v>
       </c>
       <c r="D8" t="n">
-        <v>921.7704558796265</v>
+        <v>563.5047572728738</v>
       </c>
       <c r="E8" t="n">
-        <v>921.7704558796265</v>
+        <v>563.5047572728738</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>152.5188524832662</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>141.4868063686668</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810556</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4901,34 +4901,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>463.6594280995018</v>
+        <v>752.7622949738575</v>
       </c>
       <c r="C10" t="n">
-        <v>294.723245171595</v>
+        <v>583.8261120459506</v>
       </c>
       <c r="D10" t="n">
-        <v>144.6066057592592</v>
+        <v>433.7094726336148</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>285.7963790512217</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>138.9064315533114</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214137</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.50719300825</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732717</v>
+        <v>1155.203338947627</v>
       </c>
       <c r="Y10" t="n">
-        <v>645.3078929297416</v>
+        <v>934.4107598040972</v>
       </c>
     </row>
     <row r="11">
@@ -5035,37 +5035,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>727.9786782557277</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C13" t="n">
-        <v>559.0424953278208</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D13" t="n">
-        <v>408.925855915485</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
         <v>261.0127623330919</v>
@@ -5190,19 +5190,19 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
         <v>826.1405381797747</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W13" t="n">
-        <v>1358.409273127515</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X13" t="n">
-        <v>1130.419722229497</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y13" t="n">
-        <v>909.6271430859674</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,28 +5290,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,22 +5527,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5746,55 +5746,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5980,16 +5980,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5998,40 +5998,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1475.663568322143</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1186.246398285183</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>958.2568473871653</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>737.4642682436352</v>
       </c>
     </row>
     <row r="26">
@@ -6220,28 +6220,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6253,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="32">
@@ -6694,46 +6694,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6742,7 +6742,7 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6837,58 +6837,58 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
         <v>1746.193029533436</v>
@@ -6934,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7162,40 +7162,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7569,37 +7569,37 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U43" t="n">
         <v>1735.314832085242</v>
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-3.073233536594895e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>65.54986409393054</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>145.6085800303777</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>166.0397529241845</v>
       </c>
       <c r="U16" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>39.70888054695402</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>41.54258064659055</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>166.0397529241845</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>57.22910392194183</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>46.45968844823054</v>
       </c>
       <c r="U43" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>738020.8750562395</v>
+        <v>738020.8750562394</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>738020.8750562394</v>
+        <v>738020.8750562395</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>738020.8750562394</v>
+        <v>738020.8750562395</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>738020.8750562394</v>
+        <v>738020.8750562395</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>738020.8750562395</v>
+        <v>738020.8750562394</v>
       </c>
     </row>
     <row r="14">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>697885.5043846408</v>
+      </c>
+      <c r="C2" t="n">
         <v>697885.5043846407</v>
       </c>
-      <c r="C2" t="n">
-        <v>697885.5043846411</v>
-      </c>
       <c r="D2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846406</v>
       </c>
       <c r="E2" t="n">
         <v>686074.6097365059</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="G2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="H2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="I2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="J2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="K2" t="n">
         <v>686074.6097365057</v>
-      </c>
-      <c r="I2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="J2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="K2" t="n">
-        <v>686074.6097365055</v>
       </c>
       <c r="L2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="M2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="N2" t="n">
         <v>686074.6097365055</v>
-      </c>
-      <c r="N2" t="n">
-        <v>686074.6097365057</v>
       </c>
       <c r="O2" t="n">
         <v>686074.6097365057</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>5.977382704713819e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073557</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>2.048154783551581e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316951</v>
+        <v>91573.95495316935</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316936</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316949</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181807</v>
       </c>
       <c r="H4" t="n">
         <v>12386.92018181813</v>
@@ -26441,13 +26441,13 @@
         <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181817</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181809</v>
       </c>
       <c r="M4" t="n">
         <v>12386.92018181813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-830367.1368575143</v>
+        <v>-830367.1368575146</v>
       </c>
       <c r="C6" t="n">
-        <v>498377.6088700779</v>
+        <v>498377.6088700782</v>
       </c>
       <c r="D6" t="n">
-        <v>498377.6088700781</v>
+        <v>498377.6088700782</v>
       </c>
       <c r="E6" t="n">
-        <v>246805.3186690686</v>
+        <v>247117.9599979892</v>
       </c>
       <c r="F6" t="n">
-        <v>572217.7804764238</v>
+        <v>572530.421805345</v>
       </c>
       <c r="G6" t="n">
-        <v>572217.7804764234</v>
+        <v>572530.4218053448</v>
       </c>
       <c r="H6" t="n">
-        <v>572217.7804764236</v>
+        <v>572530.421805345</v>
       </c>
       <c r="I6" t="n">
-        <v>572217.7804764236</v>
+        <v>572530.4218053448</v>
       </c>
       <c r="J6" t="n">
-        <v>354686.578079146</v>
+        <v>354999.2194080673</v>
       </c>
       <c r="K6" t="n">
-        <v>572217.7804764232</v>
+        <v>572530.4218053449</v>
       </c>
       <c r="L6" t="n">
-        <v>572217.7804764236</v>
+        <v>572530.4218053448</v>
       </c>
       <c r="M6" t="n">
-        <v>487162.7525409116</v>
+        <v>487475.3938698329</v>
       </c>
       <c r="N6" t="n">
-        <v>572217.7804764236</v>
+        <v>572530.4218053448</v>
       </c>
       <c r="O6" t="n">
-        <v>572217.7804764236</v>
+        <v>572530.4218053449</v>
       </c>
       <c r="P6" t="n">
-        <v>572217.7804764236</v>
+        <v>572530.4218053449</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>1089.776700593299</v>
+      </c>
+      <c r="C3" t="n">
         <v>1089.776700593298</v>
       </c>
-      <c r="C3" t="n">
-        <v>1089.776700593299</v>
-      </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.401455402293</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022923</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26819,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022921</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.66894511512453</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>174.0238667465092</v>
       </c>
     </row>
     <row r="3">
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27593,13 +27593,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>68.10750358912699</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>94.35543628911037</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>325.4417151617375</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>158.1723360975054</v>
       </c>
     </row>
     <row r="6">
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>206.5217571557724</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27858,19 +27858,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>307.2767095024426</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>261.9597511231278</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>69.12041821276414</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>94.35543628911154</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.179500941361766e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-9.092207747706317e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29814,7 +29814,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>398.7616643558013</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>256.1654199113569</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
